--- a/data/trans_camb/P36_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 2,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 3,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 5,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 9,53</t>
+          <t>0,0; 12,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,69</t>
+          <t>0,0; 9,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 4,48</t>
+          <t>0,0; 11,02</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,22</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,1</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,22</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>220,43%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,93</t>
+          <t>0,0; 11,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 5,86</t>
+          <t>0,0; 10,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 2,95</t>
+          <t>-6,62; 4,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,7</t>
+          <t>-6,55; 4,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,81</t>
+          <t>-6,66; 3,88</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 2,1</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 5,04</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 3,96</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>60,99%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,73%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>127,96%</t>
+          <t>-7,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>-13,2%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-9,34%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>79,97%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>60,27%</t>
         </is>
       </c>
     </row>
@@ -899,6 +1035,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 0,87</t>
+          <t>-6,28; 3,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 0,89</t>
+          <t>-8,01; 3,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 0,0</t>
+          <t>-4,69; 6,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 0,0</t>
+          <t>-4,94; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 0,24</t>
+          <t>-4,62; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 0,42</t>
+          <t>-4,6; 0,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 1,52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 1,37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 2,91</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-76,38%</t>
+          <t>-11,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-76,61%</t>
+          <t>-18,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>62,28%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-79,0%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-79,12%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-45,7%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-50,75%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -1055,6 +1251,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 3,5</t>
+          <t>-2,59; 9,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 0,04</t>
+          <t>-6,47; 2,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,29</t>
+          <t>-6,76; 1,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,46</t>
+          <t>-1,23; 7,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,43</t>
+          <t>-2,49; 3,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,19</t>
+          <t>-2,23; 4,61</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 6,33</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 2,42</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 2,62</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-31,15%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-79,41%</t>
+          <t>-49,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>52,89%</t>
+          <t>-53,9%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-18,85%</t>
+          <t>188,79%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,32%</t>
+          <t>60,88%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-64,57%</t>
+          <t>87,26%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>111,42%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-14,18%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-9,36%</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 247,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 221,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,12 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-77,23; 188,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-98,62; 64,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-61,89; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 6,81</t>
+          <t>-4,33; 7,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 2,36</t>
+          <t>-5,74; 5,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 7,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 3,55</t>
+          <t>0,0; 11,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,79</t>
+          <t>0,0; 9,26</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 5,16</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 5,34</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 5,59</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>107,19%</t>
+          <t>49,74%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-7,25%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
+          <t>24,71%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>105,5%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>86,06%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>50,6%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>91,86%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>64,15%</t>
         </is>
       </c>
     </row>
@@ -1367,6 +1683,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1391,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1401,10 +1732,25 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -1429,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1439,10 +1785,25 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1467,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1477,10 +1838,25 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1523,6 +1899,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,3</t>
+          <t>-1,32; 2,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 0,3</t>
+          <t>-1,82; 1,71</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,03</t>
+          <t>-1,63; 2,22</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,54</t>
+          <t>-1,01; 2,06</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,09</t>
+          <t>-0,94; 2,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,62</t>
+          <t>-1,09; 1,67</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 1,88</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 1,29</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 1,42</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-16,74%</t>
+          <t>40,85%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-52,75%</t>
+          <t>-4,19%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>63,57%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>67,38%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-21,86%</t>
+          <t>38,63%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>52,49%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>21,69%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>28,4%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-73,29; 115,28</t>
+          <t>-67,81; 585,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-88,85; 38,43</t>
+          <t>-83,6; 467,14</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 479,51</t>
+          <t>-75,53; 401,37</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-56,7; 417,21</t>
+          <t>-79,55; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-55,07; 119,93</t>
+          <t>-76,63; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-68,76; 77,01</t>
+          <t>-83,65; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-42,64; 342,99</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-59,05; 229,32</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-61,04; 214,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
